--- a/sample_questions.xlsx
+++ b/sample_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onebox\projects_2\tech_arena_25\no_internet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirthickraj/Projects/huawei_hackathon/inferencePipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1888E07-57C8-43B7-9DB2-AE32D99B8FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D52E20-B4FF-2349-A136-058BAED32251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="24100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>difficulty</t>
   </si>
@@ -108,6 +103,15 @@
   </si>
   <si>
     <t>154cf425add4efd8f0af44818e4db3d64084421d3be6bfb407a4decc92f6b00b</t>
+  </si>
+  <si>
+    <t>mediu m</t>
+  </si>
+  <si>
+    <t>What is gods own country</t>
+  </si>
+  <si>
+    <t>kerala</t>
   </si>
 </sst>
 </file>
@@ -190,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,9 +234,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,26 +269,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,26 +304,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,18 +480,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="64.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -555,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -572,7 +542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -606,7 +576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -623,7 +593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -638,6 +608,23 @@
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +645,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -678,7 +665,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
